--- a/tests/vcfs/temp/22skh02673_variants.xlsx
+++ b/tests/vcfs/temp/22skh02673_variants.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet1!$A$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">Sheet1!$A$1:$AK$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1" calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t xml:space="preserve">User Classification</t>
   </si>
@@ -25,9 +25,15 @@
     <t xml:space="preserve">Variant ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Variant Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key Variant</t>
   </si>
   <si>
+    <t xml:space="preserve">Oncomine Reporter Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
@@ -127,12 +133,96 @@
     <t xml:space="preserve">.</t>
   </si>
   <si>
+    <t xml:space="preserve">BAP1 c.37+2T&gt;C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3:52443856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENT (HETEROZYGOUS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A=0.9577, G=0.0423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.37+2T&gt;C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFR4 G388R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5:176520243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.Gly388Arg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G=0.4385, A=0.5615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.1162G&gt;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathogenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSM521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRAS G12D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain-of-Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotspot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12:25398284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.Gly12Asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C=0.9459, T=0.0541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.35G&gt;A</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">snp</t>
-  </si>
-  <si>
     <t xml:space="preserve">AR</t>
   </si>
   <si>
@@ -142,15 +232,6 @@
     <t xml:space="preserve">p.Gln799Glu</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESENT (HETEROZYGOUS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">C=0.4755, G=0.5245</t>
   </si>
   <si>
@@ -169,9 +250,6 @@
     <t xml:space="preserve">p.Gln1334dup</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">AGCA</t>
   </si>
   <si>
@@ -179,69 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">c.4001_4002insGCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr3:52443856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A=0.9577, G=0.0423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.37+2T&gt;C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGFR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr5:176520243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Gly388Arg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G=0.4385, A=0.5615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.1162G&gt;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSM521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain-of-Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotspot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr12:25398284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Gly12Asp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C=0.9459, T=0.0541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c.35G&gt;A</t>
   </si>
   <si>
     <t xml:space="preserve">NOTCH3</t>
@@ -321,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -364,6 +379,8 @@
     <col min="33" max="33" customWidth="1" width="28.501116071428573"/>
     <col min="34" max="34" customWidth="1" width="28.501116071428573"/>
     <col min="35" max="35" customWidth="1" width="28.501116071428573"/>
+    <col min="36" max="36" customWidth="1" width="28.501116071428573"/>
+    <col min="37" max="37" customWidth="1" width="28.501116071428573"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
@@ -443,10 +460,10 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
@@ -471,94 +488,102 @@
       </c>
       <c r="AI1" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8031.96</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1348</v>
-      </c>
       <c r="P2" t="n">
-        <v>1348</v>
+        <v>11.6974</v>
       </c>
       <c r="Q2" t="n">
-        <v>707</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="U2" t="n">
-        <v>52.4</v>
+        <v>71</v>
+      </c>
+      <c r="R2" t="n">
+        <v>71</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
       </c>
       <c r="V2" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="W2" t="n">
-        <v>1348</v>
-      </c>
-      <c r="X2" t="n">
-        <v>641</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2">
-             </c>
-      <c r="AC2">
-             </c>
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0676487848604041</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0676487848604041</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
       <c r="AD2">
              </c>
       <c r="AE2">
@@ -570,94 +595,100 @@
       <c r="AH2">
              </c>
       <c r="AI2">
+             </c>
+      <c r="AJ2">
+             </c>
+      <c r="AK2">
              </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1451.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>453</v>
+      <c r="O3" t="s">
+        <v>37</v>
       </c>
       <c r="P3" t="n">
-        <v>311</v>
+        <v>1226.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>136</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" t="n">
+        <v>187</v>
+      </c>
+      <c r="S3" t="n">
+        <v>105</v>
+      </c>
+      <c r="T3" t="s">
         <v>53</v>
       </c>
-      <c r="T3" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="U3" t="n">
-        <v>43.7</v>
+      <c r="U3" t="s">
+        <v>54</v>
       </c>
       <c r="V3" t="n">
+        <v>0.561</v>
+      </c>
+      <c r="W3" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
-      <c r="W3" t="n">
-        <v>311</v>
-      </c>
-      <c r="X3" t="n">
-        <v>136</v>
-      </c>
       <c r="Y3" t="n">
-        <v>7.244359600749654e-146</v>
+        <v>187</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.244359600749654e-146</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3">
-             </c>
-      <c r="AC3">
-             </c>
+        <v>82</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.280342072000365e-123</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.280342072000365e-123</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>36</v>
+      </c>
       <c r="AD3">
              </c>
       <c r="AE3">
@@ -669,94 +700,100 @@
       <c r="AH3">
              </c>
       <c r="AI3">
+             </c>
+      <c r="AJ3">
+             </c>
+      <c r="AK3">
              </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.6974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>71</v>
-      </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>190.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.2</v>
+        <v>6392</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1996</v>
+      </c>
+      <c r="S4" t="n">
+        <v>108</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
       </c>
       <c r="V4" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="n">
-        <v>71</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0.0676487848604041</v>
+        <v>1996</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0676487848604041</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4">
-             </c>
-      <c r="AC4">
-             </c>
+        <v>108</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9.594006315159316e-20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.594006315159316e-20</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>36</v>
+      </c>
       <c r="AD4">
              </c>
       <c r="AE4">
@@ -768,94 +805,100 @@
       <c r="AH4">
              </c>
       <c r="AI4">
+             </c>
+      <c r="AJ4">
+             </c>
+      <c r="AK4">
              </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1226.42</v>
-      </c>
-      <c r="O5" t="n">
-        <v>187</v>
-      </c>
       <c r="P5" t="n">
-        <v>187</v>
+        <v>8031.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>105</v>
-      </c>
-      <c r="R5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.561</v>
-      </c>
-      <c r="U5" t="n">
-        <v>56.1</v>
+        <v>1348</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1348</v>
+      </c>
+      <c r="S5" t="n">
+        <v>707</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
       </c>
       <c r="V5" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="W5" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="X5" t="n">
         <v>1</v>
       </c>
-      <c r="W5" t="n">
-        <v>187</v>
-      </c>
-      <c r="X5" t="n">
-        <v>82</v>
-      </c>
       <c r="Y5" t="n">
-        <v>2.280342072000365e-123</v>
+        <v>1348</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.280342072000365e-123</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5">
-             </c>
-      <c r="AC5">
-             </c>
+        <v>641</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>36</v>
+      </c>
       <c r="AD5">
              </c>
       <c r="AE5">
@@ -867,94 +910,100 @@
       <c r="AH5">
              </c>
       <c r="AI5">
+             </c>
+      <c r="AJ5">
+             </c>
+      <c r="AK5">
              </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="n">
-        <v>190.18</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6392</v>
-      </c>
       <c r="P6" t="n">
-        <v>1996</v>
+        <v>1451.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>108</v>
-      </c>
-      <c r="R6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.4</v>
+        <v>453</v>
+      </c>
+      <c r="R6" t="n">
+        <v>311</v>
+      </c>
+      <c r="S6" t="n">
+        <v>136</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
       </c>
       <c r="V6" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="W6" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="X6" t="n">
         <v>1</v>
       </c>
-      <c r="W6" t="n">
-        <v>1996</v>
-      </c>
-      <c r="X6" t="n">
-        <v>108</v>
-      </c>
       <c r="Y6" t="n">
-        <v>9.594006315159316e-20</v>
+        <v>311</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.594006315159316e-20</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6">
-             </c>
-      <c r="AC6">
-             </c>
+        <v>136</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.244359600749654e-146</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.244359600749654e-146</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>36</v>
+      </c>
       <c r="AD6">
              </c>
       <c r="AE6">
@@ -966,94 +1015,100 @@
       <c r="AH6">
              </c>
       <c r="AI6">
+             </c>
+      <c r="AJ6">
+             </c>
+      <c r="AK6">
              </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>14.1692</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>118</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>118</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="T7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.042</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>4.2</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>1</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>118</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>0.038289526873602965</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>0.038289526873602965</v>
       </c>
-      <c r="AA7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7">
-             </c>
-      <c r="AC7">
-             </c>
+      <c r="AC7" t="s">
+        <v>36</v>
+      </c>
       <c r="AD7">
              </c>
       <c r="AE7">
@@ -1065,10 +1120,14 @@
       <c r="AH7">
              </c>
       <c r="AI7">
+             </c>
+      <c r="AJ7">
+             </c>
+      <c r="AK7">
              </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI1"/>
+  <autoFilter ref="A1:AK1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>